--- a/Corona Data.xlsx
+++ b/Corona Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>3/22/20</t>
+  </si>
+  <si>
+    <t>3/23/20</t>
   </si>
   <si>
     <t>US</t>
@@ -567,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,24 +1632,24 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>1236</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1658,15 +1661,15 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1675,12 +1678,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1692,15 +1695,15 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1709,12 +1712,12 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -1726,12 +1729,12 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -1743,12 +1746,12 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -1760,12 +1763,12 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -1777,15 +1780,15 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1794,15 +1797,15 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1811,12 +1814,12 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -1828,15 +1831,15 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1845,12 +1848,12 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -1862,12 +1865,12 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77">
         <v>11</v>
@@ -1879,12 +1882,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78">
         <v>11</v>
@@ -1896,12 +1899,12 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B79">
         <v>11</v>
@@ -1913,12 +1916,12 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80">
         <v>11</v>
@@ -1930,12 +1933,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81">
         <v>11</v>
@@ -1944,15 +1947,15 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>11</v>
@@ -1964,15 +1967,15 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1981,12 +1984,12 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84">
         <v>12</v>
@@ -1998,15 +2001,15 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B85">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2015,12 +2018,12 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86">
         <v>13</v>
@@ -2032,12 +2035,12 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87">
         <v>13</v>
@@ -2049,12 +2052,12 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88">
         <v>13</v>
@@ -2066,12 +2069,12 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B89">
         <v>13</v>
@@ -2083,12 +2086,12 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B90">
         <v>13</v>
@@ -2100,12 +2103,12 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91">
         <v>13</v>
@@ -2117,12 +2120,12 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92">
         <v>13</v>
@@ -2134,29 +2137,29 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B94">
         <v>15</v>
@@ -2168,12 +2171,12 @@
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B95">
         <v>15</v>
@@ -2185,12 +2188,12 @@
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96">
         <v>15</v>
@@ -2202,12 +2205,12 @@
         <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B97">
         <v>15</v>
@@ -2216,15 +2219,15 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98">
         <v>15</v>
@@ -2236,15 +2239,15 @@
         <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2253,12 +2256,12 @@
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B100">
         <v>16</v>
@@ -2267,35 +2270,35 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B102">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2304,375 +2307,375 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B103">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B104">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D105">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B106">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="C106">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106">
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B107">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C107">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B108">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="C108">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B109">
-        <v>449</v>
+        <v>336</v>
       </c>
       <c r="C109">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D109">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B110">
-        <v>514</v>
+        <v>449</v>
       </c>
       <c r="C110">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111">
-        <v>892</v>
+        <v>514</v>
       </c>
       <c r="C111">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B112">
-        <v>1214</v>
+        <v>892</v>
       </c>
       <c r="C112">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D112">
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B113">
-        <v>1596</v>
+        <v>1214</v>
       </c>
       <c r="C113">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D113">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B114">
-        <v>2112</v>
+        <v>1596</v>
       </c>
       <c r="C114">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D114">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B115">
-        <v>2660</v>
+        <v>2112</v>
       </c>
       <c r="C115">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D115">
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B116">
-        <v>3432</v>
+        <v>2657</v>
       </c>
       <c r="C116">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D116">
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B117">
-        <v>4565</v>
+        <v>3424</v>
       </c>
       <c r="C117">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D117">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B118">
-        <v>6353</v>
+        <v>4557</v>
       </c>
       <c r="C118">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D118">
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B119">
-        <v>7715</v>
+        <v>6345</v>
       </c>
       <c r="C119">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B120">
-        <v>13608</v>
+        <v>7705</v>
       </c>
       <c r="C120">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B121">
-        <v>19028</v>
+        <v>13591</v>
       </c>
       <c r="C121">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B122">
-        <v>25417</v>
+        <v>19000</v>
       </c>
       <c r="C122">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B123">
-        <v>33193</v>
+        <v>25381</v>
       </c>
       <c r="C123">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>33143</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2683,16 +2686,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>33147</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="E125" t="s">
         <v>68</v>
@@ -2700,7 +2703,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2712,12 +2715,12 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2729,15 +2732,15 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2746,15 +2749,15 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2763,15 +2766,15 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2780,15 +2783,15 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2797,12 +2800,12 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2814,15 +2817,15 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2831,15 +2834,15 @@
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2848,12 +2851,12 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -2865,12 +2868,12 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -2882,12 +2885,12 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -2899,15 +2902,15 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2916,15 +2919,15 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2933,15 +2936,15 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2950,15 +2953,15 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2967,12 +2970,12 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -2984,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -3001,12 +3004,12 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -3018,12 +3021,12 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -3032,15 +3035,15 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -3049,15 +3052,15 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -3069,12 +3072,12 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -3086,12 +3089,12 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -3103,15 +3106,15 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3120,15 +3123,15 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3137,12 +3140,12 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B152">
         <v>8</v>
@@ -3154,12 +3157,12 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B153">
         <v>8</v>
@@ -3171,46 +3174,46 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -3222,15 +3225,15 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3239,15 +3242,15 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B158">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3256,15 +3259,15 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B159">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3273,49 +3276,49 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B160">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B161">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B162">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3324,15 +3327,15 @@
         <v>6</v>
       </c>
       <c r="E162" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B163">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3341,15 +3344,15 @@
         <v>6</v>
       </c>
       <c r="E163" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B164">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3358,15 +3361,15 @@
         <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B165">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3375,15 +3378,15 @@
         <v>6</v>
       </c>
       <c r="E165" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B166">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3392,15 +3395,15 @@
         <v>6</v>
       </c>
       <c r="E166" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B167">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3409,15 +3412,15 @@
         <v>6</v>
       </c>
       <c r="E167" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B168">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3426,83 +3429,83 @@
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B169">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E169" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B170">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B171">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>8</v>
       </c>
       <c r="E171" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B172">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <v>8</v>
       </c>
       <c r="E172" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B173">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -3511,15 +3514,15 @@
         <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B174">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -3528,15 +3531,15 @@
         <v>8</v>
       </c>
       <c r="E174" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B175">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -3545,15 +3548,15 @@
         <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B176">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3562,15 +3565,15 @@
         <v>8</v>
       </c>
       <c r="E176" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B177">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -3579,140 +3582,140 @@
         <v>8</v>
       </c>
       <c r="E177" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B178">
-        <v>415</v>
+        <v>198</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E178" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B179">
-        <v>478</v>
+        <v>252</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B180">
-        <v>657</v>
+        <v>415</v>
       </c>
       <c r="C180">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D180">
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B181">
-        <v>800</v>
+        <v>478</v>
       </c>
       <c r="C181">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D181">
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B182">
-        <v>943</v>
+        <v>657</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D182">
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B183">
-        <v>1278</v>
+        <v>800</v>
       </c>
       <c r="C183">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B184">
-        <v>1465</v>
+        <v>943</v>
       </c>
       <c r="C184">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
         <v>69</v>
@@ -3720,16 +3723,16 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1465</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
         <v>69</v>
@@ -3737,16 +3740,16 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
         <v>69</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3766,12 +3769,12 @@
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3783,12 +3786,12 @@
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3800,12 +3803,12 @@
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3817,12 +3820,12 @@
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3834,12 +3837,12 @@
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3851,12 +3854,12 @@
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3868,12 +3871,12 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3885,12 +3888,12 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3902,12 +3905,12 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -3919,12 +3922,12 @@
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3936,12 +3939,12 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -3953,12 +3956,12 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -3970,12 +3973,12 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3987,12 +3990,12 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -4004,12 +4007,12 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -4021,12 +4024,12 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -4038,12 +4041,12 @@
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -4055,12 +4058,12 @@
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -4072,12 +4075,12 @@
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -4089,12 +4092,12 @@
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -4106,12 +4109,12 @@
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -4123,12 +4126,12 @@
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -4140,12 +4143,12 @@
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -4157,12 +4160,12 @@
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -4174,582 +4177,582 @@
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B215">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B216">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B217">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C217">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B218">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C218">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B219">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C219">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B220">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="C220">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D220">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B221">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="C221">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D221">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B222">
-        <v>388</v>
+        <v>95</v>
       </c>
       <c r="C222">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D222">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B223">
-        <v>593</v>
+        <v>139</v>
       </c>
       <c r="C223">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D223">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E223" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B224">
-        <v>978</v>
+        <v>245</v>
       </c>
       <c r="C224">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D224">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="E224" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B225">
-        <v>1501</v>
+        <v>388</v>
       </c>
       <c r="C225">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D225">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="E225" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B226">
-        <v>2336</v>
+        <v>593</v>
       </c>
       <c r="C226">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D226">
-        <v>291</v>
+        <v>123</v>
       </c>
       <c r="E226" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B227">
-        <v>2922</v>
+        <v>978</v>
       </c>
       <c r="C227">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D227">
-        <v>552</v>
+        <v>175</v>
       </c>
       <c r="E227" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B228">
-        <v>3513</v>
+        <v>1501</v>
       </c>
       <c r="C228">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D228">
-        <v>739</v>
+        <v>291</v>
       </c>
       <c r="E228" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B229">
-        <v>4747</v>
+        <v>2336</v>
       </c>
       <c r="C229">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D229">
-        <v>913</v>
+        <v>291</v>
       </c>
       <c r="E229" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B230">
-        <v>5823</v>
+        <v>2922</v>
       </c>
       <c r="C230">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D230">
-        <v>1669</v>
+        <v>552</v>
       </c>
       <c r="E230" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B231">
-        <v>6566</v>
+        <v>3513</v>
       </c>
       <c r="C231">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="D231">
-        <v>2134</v>
+        <v>739</v>
       </c>
       <c r="E231" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B232">
-        <v>7161</v>
+        <v>4747</v>
       </c>
       <c r="C232">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="D232">
-        <v>2394</v>
+        <v>913</v>
       </c>
       <c r="E232" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B233">
-        <v>8042</v>
+        <v>5823</v>
       </c>
       <c r="C233">
-        <v>291</v>
+        <v>145</v>
       </c>
       <c r="D233">
-        <v>2731</v>
+        <v>1669</v>
       </c>
       <c r="E233" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B234">
-        <v>9000</v>
+        <v>6566</v>
       </c>
       <c r="C234">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="D234">
-        <v>2959</v>
+        <v>2134</v>
       </c>
       <c r="E234" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B235">
-        <v>10075</v>
+        <v>7161</v>
       </c>
       <c r="C235">
-        <v>429</v>
+        <v>237</v>
       </c>
       <c r="D235">
-        <v>2959</v>
+        <v>2394</v>
       </c>
       <c r="E235" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B236">
-        <v>11364</v>
+        <v>8042</v>
       </c>
       <c r="C236">
-        <v>514</v>
+        <v>291</v>
       </c>
       <c r="D236">
-        <v>2959</v>
+        <v>2731</v>
       </c>
       <c r="E236" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B237">
-        <v>12729</v>
+        <v>9000</v>
       </c>
       <c r="C237">
-        <v>611</v>
+        <v>354</v>
       </c>
       <c r="D237">
         <v>2959</v>
       </c>
       <c r="E237" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B238">
-        <v>13938</v>
+        <v>10075</v>
       </c>
       <c r="C238">
-        <v>724</v>
+        <v>429</v>
       </c>
       <c r="D238">
-        <v>4590</v>
+        <v>2959</v>
       </c>
       <c r="E238" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B239">
-        <v>14991</v>
+        <v>11364</v>
       </c>
       <c r="C239">
-        <v>853</v>
+        <v>514</v>
       </c>
       <c r="D239">
-        <v>4590</v>
+        <v>2959</v>
       </c>
       <c r="E239" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B240">
-        <v>16169</v>
+        <v>12729</v>
       </c>
       <c r="C240">
-        <v>988</v>
+        <v>611</v>
       </c>
       <c r="D240">
-        <v>5389</v>
+        <v>2959</v>
       </c>
       <c r="E240" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B241">
-        <v>17361</v>
+        <v>13938</v>
       </c>
       <c r="C241">
-        <v>1135</v>
+        <v>724</v>
       </c>
       <c r="D241">
-        <v>5389</v>
+        <v>4590</v>
       </c>
       <c r="E241" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B242">
-        <v>18407</v>
+        <v>14991</v>
       </c>
       <c r="C242">
-        <v>1284</v>
+        <v>853</v>
       </c>
       <c r="D242">
-        <v>5710</v>
+        <v>4590</v>
       </c>
       <c r="E242" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B243">
-        <v>19644</v>
+        <v>16169</v>
       </c>
       <c r="C243">
-        <v>1433</v>
+        <v>988</v>
       </c>
       <c r="D243">
-        <v>6745</v>
+        <v>5389</v>
       </c>
       <c r="E243" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B244">
-        <v>20610</v>
+        <v>17361</v>
       </c>
       <c r="C244">
-        <v>1556</v>
+        <v>1135</v>
       </c>
       <c r="D244">
-        <v>7635</v>
+        <v>5389</v>
       </c>
       <c r="E244" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B245">
-        <v>21638</v>
+        <v>18407</v>
       </c>
       <c r="C245">
-        <v>1685</v>
+        <v>1284</v>
       </c>
       <c r="D245">
-        <v>7931</v>
+        <v>5710</v>
       </c>
       <c r="E245" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>19644</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1433</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>6745</v>
       </c>
       <c r="E246" t="s">
         <v>70</v>
@@ -4757,16 +4760,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>20610</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>7635</v>
       </c>
       <c r="E247" t="s">
         <v>70</v>
@@ -4774,16 +4777,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>21638</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>7931</v>
       </c>
       <c r="E248" t="s">
         <v>70</v>
@@ -4791,16 +4794,16 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>21638</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>7931</v>
       </c>
       <c r="E249" t="s">
         <v>70</v>
@@ -4808,7 +4811,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -4820,12 +4823,12 @@
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -4837,12 +4840,12 @@
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -4854,12 +4857,12 @@
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -4871,12 +4874,12 @@
         <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -4888,15 +4891,15 @@
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4905,15 +4908,15 @@
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4922,15 +4925,15 @@
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4939,15 +4942,15 @@
         <v>0</v>
       </c>
       <c r="E257" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4956,12 +4959,12 @@
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -4973,12 +4976,12 @@
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B260">
         <v>2</v>
@@ -4990,12 +4993,12 @@
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -5007,15 +5010,15 @@
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -5024,15 +5027,15 @@
         <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -5041,15 +5044,15 @@
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -5058,15 +5061,15 @@
         <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -5075,12 +5078,12 @@
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -5092,12 +5095,12 @@
         <v>0</v>
       </c>
       <c r="E266" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -5109,12 +5112,12 @@
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -5126,12 +5129,12 @@
         <v>0</v>
       </c>
       <c r="E268" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -5143,12 +5146,12 @@
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -5160,12 +5163,12 @@
         <v>0</v>
       </c>
       <c r="E270" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -5177,12 +5180,12 @@
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -5194,12 +5197,12 @@
         <v>0</v>
       </c>
       <c r="E272" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -5211,12 +5214,12 @@
         <v>0</v>
       </c>
       <c r="E273" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -5228,12 +5231,12 @@
         <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -5245,548 +5248,548 @@
         <v>0</v>
       </c>
       <c r="E275" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B276">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B277">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E277" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B278">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="C278">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E278" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B279">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="C279">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B280">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="C280">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E280" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B281">
-        <v>453</v>
+        <v>62</v>
       </c>
       <c r="C281">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B282">
-        <v>655</v>
+        <v>155</v>
       </c>
       <c r="C282">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E282" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B283">
-        <v>888</v>
+        <v>229</v>
       </c>
       <c r="C283">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D283">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E283" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B284">
-        <v>1128</v>
+        <v>322</v>
       </c>
       <c r="C284">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D284">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E284" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B285">
-        <v>1694</v>
+        <v>453</v>
       </c>
       <c r="C285">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D285">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E285" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B286">
-        <v>2036</v>
+        <v>655</v>
       </c>
       <c r="C286">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D286">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="E286" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B287">
-        <v>2502</v>
+        <v>888</v>
       </c>
       <c r="C287">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D287">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="E287" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B288">
-        <v>3089</v>
+        <v>1128</v>
       </c>
       <c r="C288">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D288">
-        <v>276</v>
+        <v>46</v>
       </c>
       <c r="E288" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B289">
-        <v>3858</v>
+        <v>1694</v>
       </c>
       <c r="C289">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="D289">
-        <v>414</v>
+        <v>83</v>
       </c>
       <c r="E289" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B290">
-        <v>4636</v>
+        <v>2036</v>
       </c>
       <c r="C290">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="D290">
-        <v>523</v>
+        <v>149</v>
       </c>
       <c r="E290" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B291">
-        <v>5883</v>
+        <v>2502</v>
       </c>
       <c r="C291">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D291">
-        <v>589</v>
+        <v>160</v>
       </c>
       <c r="E291" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B292">
-        <v>7375</v>
+        <v>3089</v>
       </c>
       <c r="C292">
-        <v>366</v>
+        <v>107</v>
       </c>
       <c r="D292">
-        <v>622</v>
+        <v>276</v>
       </c>
       <c r="E292" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B293">
-        <v>9172</v>
+        <v>3858</v>
       </c>
       <c r="C293">
-        <v>463</v>
+        <v>148</v>
       </c>
       <c r="D293">
-        <v>724</v>
+        <v>414</v>
       </c>
       <c r="E293" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B294">
-        <v>10149</v>
+        <v>4636</v>
       </c>
       <c r="C294">
-        <v>631</v>
+        <v>197</v>
       </c>
       <c r="D294">
-        <v>724</v>
+        <v>523</v>
       </c>
       <c r="E294" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B295">
-        <v>12462</v>
+        <v>5883</v>
       </c>
       <c r="C295">
-        <v>827</v>
+        <v>233</v>
       </c>
       <c r="D295">
-        <v>1045</v>
+        <v>589</v>
       </c>
       <c r="E295" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B296">
-        <v>12462</v>
+        <v>7375</v>
       </c>
       <c r="C296">
-        <v>827</v>
+        <v>366</v>
       </c>
       <c r="D296">
-        <v>1045</v>
+        <v>622</v>
       </c>
       <c r="E296" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B297">
-        <v>17660</v>
+        <v>9172</v>
       </c>
       <c r="C297">
-        <v>1266</v>
+        <v>463</v>
       </c>
       <c r="D297">
-        <v>1439</v>
+        <v>724</v>
       </c>
       <c r="E297" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B298">
-        <v>21157</v>
+        <v>10149</v>
       </c>
       <c r="C298">
-        <v>1441</v>
+        <v>631</v>
       </c>
       <c r="D298">
-        <v>1966</v>
+        <v>724</v>
       </c>
       <c r="E298" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B299">
-        <v>24747</v>
+        <v>12462</v>
       </c>
       <c r="C299">
-        <v>1809</v>
+        <v>827</v>
       </c>
       <c r="D299">
-        <v>2335</v>
+        <v>1045</v>
       </c>
       <c r="E299" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B300">
-        <v>27980</v>
+        <v>12462</v>
       </c>
       <c r="C300">
-        <v>2158</v>
+        <v>827</v>
       </c>
       <c r="D300">
-        <v>2749</v>
+        <v>1045</v>
       </c>
       <c r="E300" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B301">
-        <v>31506</v>
+        <v>17660</v>
       </c>
       <c r="C301">
-        <v>2503</v>
+        <v>1266</v>
       </c>
       <c r="D301">
-        <v>2941</v>
+        <v>1439</v>
       </c>
       <c r="E301" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B302">
-        <v>35713</v>
+        <v>21157</v>
       </c>
       <c r="C302">
-        <v>2978</v>
+        <v>1441</v>
       </c>
       <c r="D302">
-        <v>4025</v>
+        <v>1966</v>
       </c>
       <c r="E302" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B303">
-        <v>41035</v>
+        <v>24747</v>
       </c>
       <c r="C303">
-        <v>3405</v>
+        <v>1809</v>
       </c>
       <c r="D303">
-        <v>4440</v>
+        <v>2335</v>
       </c>
       <c r="E303" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B304">
-        <v>47021</v>
+        <v>27980</v>
       </c>
       <c r="C304">
-        <v>4032</v>
+        <v>2158</v>
       </c>
       <c r="D304">
-        <v>4440</v>
+        <v>2749</v>
       </c>
       <c r="E304" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B305">
-        <v>53578</v>
+        <v>31506</v>
       </c>
       <c r="C305">
-        <v>4825</v>
+        <v>2503</v>
       </c>
       <c r="D305">
-        <v>6072</v>
+        <v>2941</v>
       </c>
       <c r="E305" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B306">
-        <v>59138</v>
+        <v>35713</v>
       </c>
       <c r="C306">
-        <v>5476</v>
+        <v>2978</v>
       </c>
       <c r="D306">
-        <v>7024</v>
+        <v>4025</v>
       </c>
       <c r="E306" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>41035</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>3405</v>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>4440</v>
       </c>
       <c r="E307" t="s">
         <v>71</v>
@@ -5794,16 +5797,16 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>47021</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>4032</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>4440</v>
       </c>
       <c r="E308" t="s">
         <v>71</v>
@@ -5811,16 +5814,16 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>53578</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>4825</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>6072</v>
       </c>
       <c r="E309" t="s">
         <v>71</v>
@@ -5828,16 +5831,16 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>59138</v>
       </c>
       <c r="C310">
-        <v>0</v>
+        <v>5476</v>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>7024</v>
       </c>
       <c r="E310" t="s">
         <v>71</v>
@@ -5845,16 +5848,16 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>59138</v>
       </c>
       <c r="C311">
-        <v>0</v>
+        <v>5476</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>7024</v>
       </c>
       <c r="E311" t="s">
         <v>71</v>
@@ -5862,10 +5865,10 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -5874,15 +5877,15 @@
         <v>0</v>
       </c>
       <c r="E312" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5891,15 +5894,15 @@
         <v>0</v>
       </c>
       <c r="E313" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B314">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5908,15 +5911,15 @@
         <v>0</v>
       </c>
       <c r="E314" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B315">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5925,15 +5928,15 @@
         <v>0</v>
       </c>
       <c r="E315" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5942,15 +5945,15 @@
         <v>0</v>
       </c>
       <c r="E316" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B317">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5959,15 +5962,15 @@
         <v>0</v>
       </c>
       <c r="E317" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B318">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5976,15 +5979,15 @@
         <v>0</v>
       </c>
       <c r="E318" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B319">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -5993,15 +5996,15 @@
         <v>0</v>
       </c>
       <c r="E319" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B320">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -6010,15 +6013,15 @@
         <v>0</v>
       </c>
       <c r="E320" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B321">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -6027,15 +6030,15 @@
         <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B322">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -6044,15 +6047,15 @@
         <v>0</v>
       </c>
       <c r="E322" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B323">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -6061,15 +6064,15 @@
         <v>0</v>
       </c>
       <c r="E323" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B324">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -6078,15 +6081,15 @@
         <v>0</v>
       </c>
       <c r="E324" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B325">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -6095,15 +6098,15 @@
         <v>0</v>
       </c>
       <c r="E325" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B326">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -6112,15 +6115,15 @@
         <v>0</v>
       </c>
       <c r="E326" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B327">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -6129,15 +6132,15 @@
         <v>0</v>
       </c>
       <c r="E327" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B328">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -6146,63 +6149,63 @@
         <v>0</v>
       </c>
       <c r="E328" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B329">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C329">
         <v>0</v>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E329" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B330">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C330">
         <v>0</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E330" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B331">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C331">
         <v>0</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E331" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B332">
         <v>16</v>
@@ -6211,15 +6214,15 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E332" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B333">
         <v>16</v>
@@ -6228,15 +6231,15 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E333" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B334">
         <v>16</v>
@@ -6245,15 +6248,15 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E334" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B335">
         <v>16</v>
@@ -6262,15 +6265,15 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E335" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B336">
         <v>16</v>
@@ -6279,15 +6282,15 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E336" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B337">
         <v>16</v>
@@ -6296,15 +6299,15 @@
         <v>0</v>
       </c>
       <c r="D337">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B338">
         <v>16</v>
@@ -6313,15 +6316,15 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E338" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B339">
         <v>16</v>
@@ -6330,15 +6333,15 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E339" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B340">
         <v>16</v>
@@ -6347,137 +6350,137 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E340" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B341">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C341">
         <v>0</v>
       </c>
       <c r="D341">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E341" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B342">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C342">
         <v>0</v>
       </c>
       <c r="D342">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E342" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B343">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C343">
         <v>0</v>
       </c>
       <c r="D343">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E343" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B344">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C344">
         <v>0</v>
       </c>
       <c r="D344">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E344" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B345">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C345">
         <v>0</v>
       </c>
       <c r="D345">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E345" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B346">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C346">
         <v>0</v>
       </c>
       <c r="D346">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E346" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B347">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C347">
         <v>0</v>
       </c>
       <c r="D347">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E347" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B348">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -6486,15 +6489,15 @@
         <v>16</v>
       </c>
       <c r="E348" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
+        <v>43</v>
+      </c>
+      <c r="B349">
         <v>48</v>
-      </c>
-      <c r="B349">
-        <v>262</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -6503,15 +6506,15 @@
         <v>16</v>
       </c>
       <c r="E349" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B350">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -6520,310 +6523,310 @@
         <v>16</v>
       </c>
       <c r="E350" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B351">
-        <v>670</v>
+        <v>130</v>
       </c>
       <c r="C351">
         <v>0</v>
       </c>
       <c r="D351">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E351" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B352">
-        <v>799</v>
+        <v>159</v>
       </c>
       <c r="C352">
         <v>0</v>
       </c>
       <c r="D352">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E352" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B353">
-        <v>1040</v>
+        <v>196</v>
       </c>
       <c r="C353">
         <v>0</v>
       </c>
       <c r="D353">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E353" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B354">
-        <v>1176</v>
+        <v>262</v>
       </c>
       <c r="C354">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D354">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E354" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B355">
-        <v>1457</v>
+        <v>482</v>
       </c>
       <c r="C355">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D355">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E355" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B356">
-        <v>1908</v>
+        <v>670</v>
       </c>
       <c r="C356">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D356">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E356" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B357">
-        <v>2078</v>
+        <v>799</v>
       </c>
       <c r="C357">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D357">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E357" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B358">
-        <v>3675</v>
+        <v>1040</v>
       </c>
       <c r="C358">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D358">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E358" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B359">
-        <v>4585</v>
+        <v>1176</v>
       </c>
       <c r="C359">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D359">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E359" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B360">
-        <v>5795</v>
+        <v>1457</v>
       </c>
       <c r="C360">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D360">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E360" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B361">
-        <v>7272</v>
+        <v>1908</v>
       </c>
       <c r="C361">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D361">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E361" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B362">
-        <v>9257</v>
+        <v>2078</v>
       </c>
       <c r="C362">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D362">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E362" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B363">
-        <v>12327</v>
+        <v>3675</v>
       </c>
       <c r="C363">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D363">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E363" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B364">
-        <v>15320</v>
+        <v>4585</v>
       </c>
       <c r="C364">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D364">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="E364" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B365">
-        <v>19848</v>
+        <v>5795</v>
       </c>
       <c r="C365">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D365">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="E365" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B366">
-        <v>22213</v>
+        <v>7272</v>
       </c>
       <c r="C366">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D366">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="E366" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B367">
-        <v>24873</v>
+        <v>9257</v>
       </c>
       <c r="C367">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D367">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="E367" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>12327</v>
       </c>
       <c r="C368">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E368" t="s">
         <v>72</v>
@@ -6831,16 +6834,16 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>15320</v>
       </c>
       <c r="C369">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D369">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E369" t="s">
         <v>72</v>
@@ -6848,16 +6851,16 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>19848</v>
       </c>
       <c r="C370">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D370">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E370" t="s">
         <v>72</v>
@@ -6865,16 +6868,16 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>22213</v>
       </c>
       <c r="C371">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="E371" t="s">
         <v>72</v>
@@ -6882,16 +6885,16 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>24873</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D372">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="E372" t="s">
         <v>72</v>
@@ -6899,16 +6902,16 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>24873</v>
       </c>
       <c r="C373">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D373">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="E373" t="s">
         <v>72</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -6928,12 +6931,12 @@
         <v>0</v>
       </c>
       <c r="E374" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6945,12 +6948,12 @@
         <v>0</v>
       </c>
       <c r="E375" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -6962,15 +6965,15 @@
         <v>0</v>
       </c>
       <c r="E376" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6979,15 +6982,15 @@
         <v>0</v>
       </c>
       <c r="E377" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -6996,15 +6999,15 @@
         <v>0</v>
       </c>
       <c r="E378" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -7013,15 +7016,15 @@
         <v>0</v>
       </c>
       <c r="E379" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -7030,15 +7033,15 @@
         <v>0</v>
       </c>
       <c r="E380" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -7047,15 +7050,15 @@
         <v>0</v>
       </c>
       <c r="E381" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B382">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -7064,12 +7067,12 @@
         <v>0</v>
       </c>
       <c r="E382" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -7081,15 +7084,15 @@
         <v>0</v>
       </c>
       <c r="E383" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B384">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -7098,15 +7101,15 @@
         <v>0</v>
       </c>
       <c r="E384" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B385">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -7115,15 +7118,15 @@
         <v>0</v>
       </c>
       <c r="E385" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B386">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -7132,15 +7135,15 @@
         <v>0</v>
       </c>
       <c r="E386" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B387">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -7149,15 +7152,15 @@
         <v>0</v>
       </c>
       <c r="E387" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B388">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -7166,114 +7169,114 @@
         <v>0</v>
       </c>
       <c r="E388" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B389">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C389">
         <v>0</v>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E389" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B390">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C390">
         <v>0</v>
       </c>
       <c r="D390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E390" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B391">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C391">
         <v>0</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E391" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B392">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C392">
         <v>0</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E392" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B393">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C393">
         <v>0</v>
       </c>
       <c r="D393">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E393" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B394">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C394">
         <v>0</v>
       </c>
       <c r="D394">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E394" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B395">
         <v>9</v>
@@ -7282,15 +7285,15 @@
         <v>0</v>
       </c>
       <c r="D395">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E395" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B396">
         <v>9</v>
@@ -7299,15 +7302,15 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E396" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B397">
         <v>9</v>
@@ -7316,15 +7319,15 @@
         <v>0</v>
       </c>
       <c r="D397">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E397" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B398">
         <v>9</v>
@@ -7333,15 +7336,15 @@
         <v>0</v>
       </c>
       <c r="D398">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E398" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B399">
         <v>9</v>
@@ -7353,12 +7356,12 @@
         <v>8</v>
       </c>
       <c r="E399" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B400">
         <v>9</v>
@@ -7370,15 +7373,15 @@
         <v>8</v>
       </c>
       <c r="E400" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B401">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -7387,15 +7390,15 @@
         <v>8</v>
       </c>
       <c r="E401" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B402">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -7404,15 +7407,15 @@
         <v>8</v>
       </c>
       <c r="E402" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B403">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -7421,15 +7424,15 @@
         <v>8</v>
       </c>
       <c r="E403" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B404">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -7438,15 +7441,15 @@
         <v>8</v>
       </c>
       <c r="E404" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B405">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -7455,15 +7458,15 @@
         <v>8</v>
       </c>
       <c r="E405" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B406">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -7472,15 +7475,15 @@
         <v>8</v>
       </c>
       <c r="E406" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B407">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -7489,15 +7492,15 @@
         <v>8</v>
       </c>
       <c r="E407" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B408">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -7506,15 +7509,15 @@
         <v>8</v>
       </c>
       <c r="E408" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B409">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -7523,15 +7526,15 @@
         <v>8</v>
       </c>
       <c r="E409" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B410">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -7540,327 +7543,327 @@
         <v>8</v>
       </c>
       <c r="E410" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B411">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D411">
         <v>8</v>
       </c>
       <c r="E411" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B412">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="C412">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D412">
         <v>8</v>
       </c>
       <c r="E412" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B413">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="C413">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D413">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E413" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B414">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="C414">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D414">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E414" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B415">
-        <v>322</v>
+        <v>51</v>
       </c>
       <c r="C415">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D415">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E415" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B416">
-        <v>384</v>
+        <v>86</v>
       </c>
       <c r="C416">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D416">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E416" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B417">
-        <v>459</v>
+        <v>116</v>
       </c>
       <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
         <v>8</v>
       </c>
-      <c r="D417">
-        <v>19</v>
-      </c>
       <c r="E417" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B418">
-        <v>459</v>
+        <v>164</v>
       </c>
       <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418">
         <v>8</v>
       </c>
-      <c r="D418">
-        <v>19</v>
-      </c>
       <c r="E418" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B419">
-        <v>802</v>
+        <v>207</v>
       </c>
       <c r="C419">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D419">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E419" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B420">
-        <v>1144</v>
+        <v>274</v>
       </c>
       <c r="C420">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D420">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E420" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B421">
-        <v>1145</v>
+        <v>322</v>
       </c>
       <c r="C421">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D421">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E421" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B422">
-        <v>1551</v>
+        <v>384</v>
       </c>
       <c r="C422">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D422">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E422" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B423">
-        <v>1960</v>
+        <v>459</v>
       </c>
       <c r="C423">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D423">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E423" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B424">
-        <v>2642</v>
+        <v>459</v>
       </c>
       <c r="C424">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D424">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E424" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B425">
-        <v>2716</v>
+        <v>802</v>
       </c>
       <c r="C425">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D425">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E425" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B426">
-        <v>4014</v>
+        <v>1144</v>
       </c>
       <c r="C426">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="D426">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E426" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B427">
-        <v>5067</v>
+        <v>1145</v>
       </c>
       <c r="C427">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="D427">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E427" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B428">
-        <v>5741</v>
+        <v>1551</v>
       </c>
       <c r="C428">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="D428">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E428" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B429">
-        <v>548</v>
+        <v>1960</v>
       </c>
       <c r="C429">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D429">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E429" t="s">
         <v>73</v>
@@ -7868,16 +7871,16 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B430">
-        <v>643</v>
+        <v>2642</v>
       </c>
       <c r="C430">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D430">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E430" t="s">
         <v>73</v>
@@ -7885,16 +7888,16 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B431">
-        <v>920</v>
+        <v>2716</v>
       </c>
       <c r="C431">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D431">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E431" t="s">
         <v>73</v>
@@ -7902,16 +7905,16 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B432">
-        <v>1406</v>
+        <v>4014</v>
       </c>
       <c r="C432">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="D432">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E432" t="s">
         <v>73</v>
@@ -7919,16 +7922,16 @@
     </row>
     <row r="433" spans="1:5">
       <c r="A433" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B433">
-        <v>2075</v>
+        <v>5067</v>
       </c>
       <c r="C433">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="D433">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E433" t="s">
         <v>73</v>
@@ -7936,16 +7939,16 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B434">
-        <v>2877</v>
+        <v>5741</v>
       </c>
       <c r="C434">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="D434">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E434" t="s">
         <v>73</v>
@@ -7953,16 +7956,16 @@
     </row>
     <row r="435" spans="1:5">
       <c r="A435" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B435">
-        <v>5509</v>
+        <v>5741</v>
       </c>
       <c r="C435">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="D435">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E435" t="s">
         <v>73</v>
@@ -7970,920 +7973,1056 @@
     </row>
     <row r="436" spans="1:5">
       <c r="A436" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B436">
-        <v>6087</v>
+        <v>548</v>
       </c>
       <c r="C436">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="D436">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="E436" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B437">
-        <v>8141</v>
+        <v>643</v>
       </c>
       <c r="C437">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="D437">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="E437" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B438">
-        <v>9802</v>
+        <v>920</v>
       </c>
       <c r="C438">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="D438">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="E438" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B439">
-        <v>11891</v>
+        <v>1406</v>
       </c>
       <c r="C439">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="D439">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="E439" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B440">
-        <v>16630</v>
+        <v>2075</v>
       </c>
       <c r="C440">
-        <v>361</v>
+        <v>56</v>
       </c>
       <c r="D440">
-        <v>463</v>
+        <v>49</v>
       </c>
       <c r="E440" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B441">
-        <v>19716</v>
+        <v>2877</v>
       </c>
       <c r="C441">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="D441">
-        <v>614</v>
+        <v>58</v>
       </c>
       <c r="E441" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B442">
-        <v>23707</v>
+        <v>5509</v>
       </c>
       <c r="C442">
-        <v>491</v>
+        <v>131</v>
       </c>
       <c r="D442">
-        <v>843</v>
+        <v>101</v>
       </c>
       <c r="E442" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B443">
-        <v>27440</v>
+        <v>6087</v>
       </c>
       <c r="C443">
-        <v>563</v>
+        <v>133</v>
       </c>
       <c r="D443">
-        <v>1115</v>
+        <v>120</v>
       </c>
       <c r="E443" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B444">
-        <v>30587</v>
+        <v>8141</v>
       </c>
       <c r="C444">
-        <v>633</v>
+        <v>171</v>
       </c>
       <c r="D444">
-        <v>1477</v>
+        <v>135</v>
       </c>
       <c r="E444" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B445">
-        <v>34110</v>
+        <v>9802</v>
       </c>
       <c r="C445">
-        <v>718</v>
+        <v>213</v>
       </c>
       <c r="D445">
-        <v>1999</v>
+        <v>214</v>
       </c>
       <c r="E445" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B446">
-        <v>36814</v>
+        <v>11891</v>
       </c>
       <c r="C446">
-        <v>805</v>
+        <v>259</v>
       </c>
       <c r="D446">
-        <v>2596</v>
+        <v>275</v>
       </c>
       <c r="E446" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B447">
-        <v>39829</v>
+        <v>16630</v>
       </c>
       <c r="C447">
-        <v>905</v>
+        <v>361</v>
       </c>
       <c r="D447">
-        <v>3219</v>
+        <v>463</v>
       </c>
       <c r="E447" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B448">
-        <v>42354</v>
+        <v>19716</v>
       </c>
       <c r="C448">
-        <v>1012</v>
+        <v>425</v>
       </c>
       <c r="D448">
-        <v>3918</v>
+        <v>614</v>
       </c>
       <c r="E448" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B449">
-        <v>44386</v>
+        <v>23707</v>
       </c>
       <c r="C449">
-        <v>1112</v>
+        <v>491</v>
       </c>
       <c r="D449">
-        <v>4636</v>
+        <v>843</v>
       </c>
       <c r="E449" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B450">
-        <v>44759</v>
+        <v>27440</v>
       </c>
       <c r="C450">
-        <v>1117</v>
+        <v>563</v>
       </c>
       <c r="D450">
-        <v>5082</v>
+        <v>1115</v>
       </c>
       <c r="E450" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B451">
-        <v>59895</v>
+        <v>30587</v>
       </c>
       <c r="C451">
-        <v>1369</v>
+        <v>633</v>
       </c>
       <c r="D451">
-        <v>6217</v>
+        <v>1477</v>
       </c>
       <c r="E451" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B452">
-        <v>66358</v>
+        <v>34110</v>
       </c>
       <c r="C452">
-        <v>1521</v>
+        <v>718</v>
       </c>
       <c r="D452">
-        <v>7977</v>
+        <v>1999</v>
       </c>
       <c r="E452" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B453">
-        <v>68413</v>
+        <v>36814</v>
       </c>
       <c r="C453">
-        <v>1663</v>
+        <v>805</v>
       </c>
       <c r="D453">
-        <v>9298</v>
+        <v>2596</v>
       </c>
       <c r="E453" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B454">
-        <v>70513</v>
+        <v>39829</v>
       </c>
       <c r="C454">
-        <v>1766</v>
+        <v>905</v>
       </c>
       <c r="D454">
-        <v>10755</v>
+        <v>3219</v>
       </c>
       <c r="E454" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B455">
-        <v>72434</v>
+        <v>42354</v>
       </c>
       <c r="C455">
-        <v>1864</v>
+        <v>1012</v>
       </c>
       <c r="D455">
-        <v>12462</v>
+        <v>3918</v>
       </c>
       <c r="E455" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B456">
-        <v>74211</v>
+        <v>44386</v>
       </c>
       <c r="C456">
-        <v>2003</v>
+        <v>1112</v>
       </c>
       <c r="D456">
-        <v>14206</v>
+        <v>4636</v>
       </c>
       <c r="E456" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B457">
-        <v>74619</v>
+        <v>44759</v>
       </c>
       <c r="C457">
-        <v>2116</v>
+        <v>1117</v>
       </c>
       <c r="D457">
-        <v>15962</v>
+        <v>5082</v>
       </c>
       <c r="E457" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B458">
-        <v>75077</v>
+        <v>59895</v>
       </c>
       <c r="C458">
-        <v>2238</v>
+        <v>1369</v>
       </c>
       <c r="D458">
-        <v>18014</v>
+        <v>6217</v>
       </c>
       <c r="E458" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B459">
-        <v>75550</v>
+        <v>66358</v>
       </c>
       <c r="C459">
-        <v>2238</v>
+        <v>1521</v>
       </c>
       <c r="D459">
-        <v>18704</v>
+        <v>7977</v>
       </c>
       <c r="E459" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B460">
-        <v>77001</v>
+        <v>68413</v>
       </c>
       <c r="C460">
-        <v>2443</v>
+        <v>1663</v>
       </c>
       <c r="D460">
-        <v>22699</v>
+        <v>9298</v>
       </c>
       <c r="E460" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B461">
-        <v>77022</v>
+        <v>70513</v>
       </c>
       <c r="C461">
-        <v>2445</v>
+        <v>1766</v>
       </c>
       <c r="D461">
-        <v>23187</v>
+        <v>10755</v>
       </c>
       <c r="E461" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B462">
-        <v>77241</v>
+        <v>72434</v>
       </c>
       <c r="C462">
-        <v>2595</v>
+        <v>1864</v>
       </c>
       <c r="D462">
-        <v>25015</v>
+        <v>12462</v>
       </c>
       <c r="E462" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B463">
-        <v>77754</v>
+        <v>74211</v>
       </c>
       <c r="C463">
-        <v>2665</v>
+        <v>2003</v>
       </c>
       <c r="D463">
-        <v>27676</v>
+        <v>14206</v>
       </c>
       <c r="E463" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B464">
-        <v>78166</v>
+        <v>74619</v>
       </c>
       <c r="C464">
-        <v>2717</v>
+        <v>2116</v>
       </c>
       <c r="D464">
-        <v>30084</v>
+        <v>15962</v>
       </c>
       <c r="E464" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B465">
-        <v>78600</v>
+        <v>75077</v>
       </c>
       <c r="C465">
-        <v>2746</v>
+        <v>2238</v>
       </c>
       <c r="D465">
-        <v>32930</v>
+        <v>18014</v>
       </c>
       <c r="E465" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B466">
-        <v>78928</v>
+        <v>75550</v>
       </c>
       <c r="C466">
-        <v>2790</v>
+        <v>2238</v>
       </c>
       <c r="D466">
-        <v>36329</v>
+        <v>18704</v>
       </c>
       <c r="E466" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B467">
-        <v>79356</v>
+        <v>77001</v>
       </c>
       <c r="C467">
-        <v>2837</v>
+        <v>2443</v>
       </c>
       <c r="D467">
-        <v>39320</v>
+        <v>22699</v>
       </c>
       <c r="E467" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B468">
-        <v>79932</v>
+        <v>77022</v>
       </c>
       <c r="C468">
-        <v>2872</v>
+        <v>2445</v>
       </c>
       <c r="D468">
-        <v>42162</v>
+        <v>23187</v>
       </c>
       <c r="E468" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B469">
-        <v>80136</v>
+        <v>77241</v>
       </c>
       <c r="C469">
-        <v>2914</v>
+        <v>2595</v>
       </c>
       <c r="D469">
-        <v>44854</v>
+        <v>25015</v>
       </c>
       <c r="E469" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B470">
-        <v>80261</v>
+        <v>77754</v>
       </c>
       <c r="C470">
-        <v>2947</v>
+        <v>2665</v>
       </c>
       <c r="D470">
-        <v>47450</v>
+        <v>27676</v>
       </c>
       <c r="E470" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B471">
-        <v>80386</v>
+        <v>78166</v>
       </c>
       <c r="C471">
-        <v>2983</v>
+        <v>2717</v>
       </c>
       <c r="D471">
-        <v>50001</v>
+        <v>30084</v>
       </c>
       <c r="E471" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B472">
-        <v>80537</v>
+        <v>78600</v>
       </c>
       <c r="C472">
-        <v>3015</v>
+        <v>2746</v>
       </c>
       <c r="D472">
-        <v>52292</v>
+        <v>32930</v>
       </c>
       <c r="E472" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B473">
-        <v>80690</v>
+        <v>78928</v>
       </c>
       <c r="C473">
-        <v>3044</v>
+        <v>2790</v>
       </c>
       <c r="D473">
-        <v>53944</v>
+        <v>36329</v>
       </c>
       <c r="E473" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B474">
-        <v>80770</v>
+        <v>79356</v>
       </c>
       <c r="C474">
-        <v>3072</v>
+        <v>2837</v>
       </c>
       <c r="D474">
-        <v>55539</v>
+        <v>39320</v>
       </c>
       <c r="E474" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B475">
-        <v>80823</v>
+        <v>79932</v>
       </c>
       <c r="C475">
-        <v>3100</v>
+        <v>2872</v>
       </c>
       <c r="D475">
-        <v>57388</v>
+        <v>42162</v>
       </c>
       <c r="E475" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B476">
-        <v>80860</v>
+        <v>80136</v>
       </c>
       <c r="C476">
-        <v>3123</v>
+        <v>2914</v>
       </c>
       <c r="D476">
-        <v>58804</v>
+        <v>44854</v>
       </c>
       <c r="E476" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B477">
-        <v>80887</v>
+        <v>80261</v>
       </c>
       <c r="C477">
-        <v>3139</v>
+        <v>2947</v>
       </c>
       <c r="D477">
-        <v>60181</v>
+        <v>47450</v>
       </c>
       <c r="E477" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B478">
-        <v>80921</v>
+        <v>80386</v>
       </c>
       <c r="C478">
-        <v>3161</v>
+        <v>2983</v>
       </c>
       <c r="D478">
-        <v>61644</v>
+        <v>50001</v>
       </c>
       <c r="E478" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B479">
-        <v>80932</v>
+        <v>80537</v>
       </c>
       <c r="C479">
-        <v>3172</v>
+        <v>3015</v>
       </c>
       <c r="D479">
-        <v>62901</v>
+        <v>52292</v>
       </c>
       <c r="E479" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B480">
-        <v>80945</v>
+        <v>80690</v>
       </c>
       <c r="C480">
-        <v>3180</v>
+        <v>3044</v>
       </c>
       <c r="D480">
-        <v>64196</v>
+        <v>53944</v>
       </c>
       <c r="E480" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B481">
-        <v>80977</v>
+        <v>80770</v>
       </c>
       <c r="C481">
-        <v>3193</v>
+        <v>3072</v>
       </c>
       <c r="D481">
-        <v>65660</v>
+        <v>55539</v>
       </c>
       <c r="E481" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B482">
-        <v>81003</v>
+        <v>80823</v>
       </c>
       <c r="C482">
-        <v>3203</v>
+        <v>3100</v>
       </c>
       <c r="D482">
-        <v>67017</v>
+        <v>57388</v>
       </c>
       <c r="E482" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B483">
-        <v>81033</v>
+        <v>80860</v>
       </c>
       <c r="C483">
-        <v>3217</v>
+        <v>3123</v>
       </c>
       <c r="D483">
-        <v>67910</v>
+        <v>58804</v>
       </c>
       <c r="E483" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B484">
-        <v>81058</v>
+        <v>80887</v>
       </c>
       <c r="C484">
-        <v>3230</v>
+        <v>3139</v>
       </c>
       <c r="D484">
-        <v>68798</v>
+        <v>60181</v>
       </c>
       <c r="E484" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B485">
-        <v>81102</v>
+        <v>80921</v>
       </c>
       <c r="C485">
-        <v>3241</v>
+        <v>3161</v>
       </c>
       <c r="D485">
-        <v>69755</v>
+        <v>61644</v>
       </c>
       <c r="E485" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B486">
-        <v>81156</v>
+        <v>80932</v>
       </c>
       <c r="C486">
-        <v>3249</v>
+        <v>3172</v>
       </c>
       <c r="D486">
-        <v>70535</v>
+        <v>62901</v>
       </c>
       <c r="E486" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B487">
-        <v>81250</v>
+        <v>80945</v>
       </c>
       <c r="C487">
-        <v>3253</v>
+        <v>3180</v>
       </c>
       <c r="D487">
-        <v>71266</v>
+        <v>64196</v>
       </c>
       <c r="E487" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B488">
-        <v>81305</v>
+        <v>80977</v>
       </c>
       <c r="C488">
-        <v>3259</v>
+        <v>3193</v>
       </c>
       <c r="D488">
-        <v>71857</v>
+        <v>65660</v>
       </c>
       <c r="E488" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" t="s">
+        <v>59</v>
+      </c>
+      <c r="B489">
+        <v>81003</v>
+      </c>
+      <c r="C489">
+        <v>3203</v>
+      </c>
+      <c r="D489">
+        <v>67017</v>
+      </c>
+      <c r="E489" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" t="s">
+        <v>60</v>
+      </c>
+      <c r="B490">
+        <v>81033</v>
+      </c>
+      <c r="C490">
+        <v>3217</v>
+      </c>
+      <c r="D490">
+        <v>67910</v>
+      </c>
+      <c r="E490" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" t="s">
+        <v>61</v>
+      </c>
+      <c r="B491">
+        <v>81058</v>
+      </c>
+      <c r="C491">
+        <v>3230</v>
+      </c>
+      <c r="D491">
+        <v>68798</v>
+      </c>
+      <c r="E491" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" t="s">
+        <v>62</v>
+      </c>
+      <c r="B492">
+        <v>81102</v>
+      </c>
+      <c r="C492">
+        <v>3241</v>
+      </c>
+      <c r="D492">
+        <v>69755</v>
+      </c>
+      <c r="E492" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" t="s">
+        <v>63</v>
+      </c>
+      <c r="B493">
+        <v>81156</v>
+      </c>
+      <c r="C493">
+        <v>3249</v>
+      </c>
+      <c r="D493">
+        <v>70535</v>
+      </c>
+      <c r="E493" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" t="s">
+        <v>64</v>
+      </c>
+      <c r="B494">
+        <v>81250</v>
+      </c>
+      <c r="C494">
+        <v>3253</v>
+      </c>
+      <c r="D494">
+        <v>71266</v>
+      </c>
+      <c r="E494" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" t="s">
+        <v>65</v>
+      </c>
+      <c r="B495">
+        <v>81305</v>
+      </c>
+      <c r="C495">
+        <v>3259</v>
+      </c>
+      <c r="D495">
+        <v>71857</v>
+      </c>
+      <c r="E495" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" t="s">
         <v>66</v>
       </c>
-      <c r="B489">
+      <c r="B496">
         <v>81397</v>
       </c>
-      <c r="C489">
+      <c r="C496">
         <v>3265</v>
       </c>
-      <c r="D489">
+      <c r="D496">
         <v>72362</v>
       </c>
-      <c r="E489" t="s">
-        <v>73</v>
+      <c r="E496" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" t="s">
+        <v>67</v>
+      </c>
+      <c r="B497">
+        <v>81439</v>
+      </c>
+      <c r="C497">
+        <v>3274</v>
+      </c>
+      <c r="D497">
+        <v>72814</v>
+      </c>
+      <c r="E497" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
